--- a/resources/ExcelsheetData/QuickCartData/QuickCartExample.xlsx
+++ b/resources/ExcelsheetData/QuickCartData/QuickCartExample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chmp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hemanth\UnilogProjects\HGH-Harware Supply\resources\ExcelsheetData\QuickCartData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,9 +432,197 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>39015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>73189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>102914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>82832</v>
+      </c>
+    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>74999</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>59168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>77545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>88349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>28014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>78968</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>59555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>29381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>34590</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>79814</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>100236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>71564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>78458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>53828</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>99667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>106332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27766</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>82720</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>80986</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>85328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>35876</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>76508</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>98547</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>87112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>86000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>9156</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
